--- a/data/turm/MEC-1B/MEC-1B_(3)bimestre.xlsx
+++ b/data/turm/MEC-1B/MEC-1B_(3)bimestre.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aline S. M.-T. M. Metalicos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aline S. M.-T. M. Metalicos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1B/MEC-1B_(3)bimestre.xlsx
+++ b/data/turm/MEC-1B/MEC-1B_(3)bimestre.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>Aline S. M.-T. M. Metalicos</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aline S. M.-T. M. Metalicos</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MEC-1B/MEC-1B_(3)bimestre.xlsx
+++ b/data/turm/MEC-1B/MEC-1B_(3)bimestre.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. Mec.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metalicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>João Bosco-Gestão Integrada</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>João Bosco-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>Aline S. M.-T. M. Metalicos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. Mec.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ernane-Des. Tec. Mec.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aline S. M.-T. M. Metalicos</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
